--- a/mallar/import/Jälla okt 2019/extraktion2_jälla_20191005_justerad.xlsx
+++ b/mallar/import/Jälla okt 2019/extraktion2_jälla_20191005_justerad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\Jälla okt 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0C8EC-C21B-4C74-AAD7-B126566BF2E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA05659-2286-446C-9022-A802F689EBF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E699B4-799D-435C-8FEE-CA3AE7CBAE4C}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2404,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F04888-3962-404C-B49B-83C6C82DE61C}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2415,7 +2415,7 @@
     <col min="3" max="3" width="39.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>441642</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>441643</v>
       </c>
@@ -2436,8 +2436,11 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>441644</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>441645</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>441646</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>441647</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>441648</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>441649</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>441650</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>441651</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>441652</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>441653</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>441654</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>441655</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>441656</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>441657</v>
       </c>
